--- a/out/resumen_financiero.xlsx
+++ b/out/resumen_financiero.xlsx
@@ -503,7 +503,7 @@
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="19" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="13" max="13"/>
     <col width="19" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
@@ -803,10 +803,10 @@
         <v>1962750</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1510650</v>
+        <v>1684400</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>18503850</v>
+        <v>18677600</v>
       </c>
     </row>
     <row r="7">
@@ -1033,10 +1033,10 @@
         <v>-820424.51</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>-522289.46</v>
+        <v>-490662.14</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>-1339106.57</v>
+        <v>-1307479.25</v>
       </c>
     </row>
     <row r="12">
@@ -1125,10 +1125,10 @@
         <v>7332406.55</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>5228626</v>
+        <v>5544659.109999999</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>42492896.60999999</v>
+        <v>42808929.72</v>
       </c>
     </row>
     <row r="14">
@@ -1447,10 +1447,10 @@
         <v>43274997.98</v>
       </c>
       <c r="M20" s="7" t="n">
-        <v>17024226.28</v>
+        <v>17545636.71</v>
       </c>
       <c r="N20" s="7" t="n">
-        <v>450894666.45</v>
+        <v>451416076.88</v>
       </c>
     </row>
     <row r="21">
@@ -1493,10 +1493,10 @@
         <v>142631286.03</v>
       </c>
       <c r="M21" s="9" t="n">
-        <v>113832360.49</v>
+        <v>114421223.93</v>
       </c>
       <c r="N21" s="9" t="n">
-        <v>1284164123.91</v>
+        <v>1284752987.35</v>
       </c>
     </row>
     <row r="22">
@@ -1539,10 +1539,10 @@
         <v>99356288.05000001</v>
       </c>
       <c r="M22" s="11" t="n">
-        <v>96808134.20999999</v>
+        <v>96875587.22</v>
       </c>
       <c r="N22" s="11" t="n">
-        <v>833269457.46</v>
+        <v>833336910.47</v>
       </c>
     </row>
   </sheetData>

--- a/out/resumen_financiero.xlsx
+++ b/out/resumen_financiero.xlsx
@@ -480,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -493,18 +493,13 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="19" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="19" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="19" customWidth="1" min="12" max="12"/>
-    <col width="19" customWidth="1" min="13" max="13"/>
-    <col width="19" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -515,65 +510,40 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>2025-08</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>2025-09</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>2025-10</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>2025-11</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
@@ -586,43 +556,28 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2747184</v>
+        <v>3942491</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2806413.5</v>
+        <v>4055810</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2839023</v>
+        <v>4505688</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5258988</v>
+        <v>4420504</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3914540</v>
+        <v>4571698</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3942491</v>
+        <v>4744728</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4055810</v>
+        <v>4762031</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4505688</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>4420504</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>4571698</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>4744728</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>4762031</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>48569098.5</v>
+        <v>31002950</v>
       </c>
     </row>
     <row r="3">
@@ -632,43 +587,28 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2860276.5</v>
+        <v>3240566.74</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3643076.5</v>
+        <v>3367466.74</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>3520176.5</v>
+        <v>3009269.7</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>544101.91</v>
+        <v>2936269.7</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1119501.91</v>
+        <v>1386000.73</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3240566.74</v>
+        <v>627400.73</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3367466.74</v>
+        <v>921271.1899999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3009269.7</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>2936269.7</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1386000.73</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>627400.73</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>921271.1899999999</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>27175378.85</v>
+        <v>15488245.53</v>
       </c>
     </row>
     <row r="4">
@@ -678,43 +618,28 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2263983</v>
+        <v>3178000</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2124566</v>
+        <v>1906600</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1108000</v>
+        <v>2355880</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>785000</v>
+        <v>1977000</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1815591.65</v>
+        <v>2037400</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3178000</v>
+        <v>993603.4399999999</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1906600</v>
+        <v>697500</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2355880</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>1977000</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>2037400</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>993603.4399999999</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>697500</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>21243124.09</v>
+        <v>13145983.44</v>
       </c>
     </row>
     <row r="5">
@@ -747,21 +672,6 @@
       <c r="I5" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
@@ -770,43 +680,28 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1124000</v>
+        <v>1051750</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>895700</v>
+        <v>2058550</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1184700</v>
+        <v>2397500</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1544100</v>
+        <v>1241750</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1276000</v>
+        <v>2256400</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1051750</v>
+        <v>1962750</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2058550</v>
+        <v>1684400</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2397500</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1241750</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2256400</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1962750</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1684400</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>18677600</v>
+        <v>12653100</v>
       </c>
     </row>
     <row r="7">
@@ -822,37 +717,22 @@
         <v>0</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>6000</v>
+        <v>25800</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>25800</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>17400</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>7000</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>9000</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>81200</v>
+        <v>67200</v>
       </c>
     </row>
     <row r="8">
@@ -862,43 +742,28 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>503656.04</v>
+        <v>829963.28</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>666290.22</v>
+        <v>398121.52</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>411523.84</v>
+        <v>387083.38</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>287751.64</v>
+        <v>536010.65</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>231850.92</v>
+        <v>2230890.65</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>829963.28</v>
+        <v>275004.11</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>398121.52</v>
+        <v>265138.75</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>387083.38</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>536010.65</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>2230890.65</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>275004.11</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>265138.75</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>7023285.000000001</v>
+        <v>4922212.340000001</v>
       </c>
     </row>
     <row r="9">
@@ -908,43 +773,28 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>206958.4</v>
+        <v>138242.5</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>773262.2</v>
+        <v>338065.53</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>587122.9300000001</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>9330.969999999999</v>
+        <v>74868.75</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>187574.2</v>
+        <v>999650</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>138242.5</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>338065.53</v>
+        <v>453085.4</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>74868.75</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>999650</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>453085.4</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>3768160.88</v>
+        <v>2003912.18</v>
       </c>
     </row>
     <row r="10">
@@ -954,43 +804,28 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>5288.14</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>0</v>
+        <v>60000.27</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>30000</v>
+        <v>212200.56</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0</v>
+        <v>137621.69</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>60000.27</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>212200.56</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>137621.69</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>445110.66</v>
+        <v>439822.52</v>
       </c>
     </row>
     <row r="11">
@@ -1003,40 +838,25 @@
         <v>0</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>-42615.81</v>
+        <v>38723.21</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>38723.21</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="n">
         <v>7500</v>
       </c>
-      <c r="L11" s="5" t="n">
+      <c r="G11" s="5" t="n">
         <v>-820424.51</v>
       </c>
-      <c r="M11" s="5" t="n">
+      <c r="H11" s="5" t="n">
         <v>-490662.14</v>
       </c>
-      <c r="N11" s="5" t="n">
-        <v>-1307479.25</v>
+      <c r="I11" s="5" t="n">
+        <v>-1264863.44</v>
       </c>
     </row>
     <row r="12">
@@ -1046,43 +866,28 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>3862642.66</v>
+        <v>3053094.58</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>2393302.02</v>
+        <v>6070282.45</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>2460583.95</v>
+        <v>4402940.94</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>2862169.3</v>
+        <v>3905887.99</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>2783702.7</v>
+        <v>3719045.69</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>3053094.58</v>
+        <v>3864181.39</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>6070282.449999999</v>
+        <v>3570591.71</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>4402940.94</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>3905887.99</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>3719045.69</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>3864181.39</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>3570591.71</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>42948425.38</v>
+        <v>28586024.75</v>
       </c>
     </row>
     <row r="13">
@@ -1092,43 +897,28 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>1588671.13</v>
+        <v>2794530.73</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>2911319.3</v>
+        <v>3203576.31</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>1702346.86</v>
+        <v>1881206.93</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>3384924.51</v>
+        <v>1846073.09</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>5940036.46</v>
+        <v>4679178.74</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>2794530.73</v>
+        <v>7332406.55</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>3203576.31</v>
+        <v>5544659.109999999</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1881206.93</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>1846073.09</v>
-      </c>
-      <c r="K13" s="4" t="n">
-        <v>4679178.74</v>
-      </c>
-      <c r="L13" s="4" t="n">
-        <v>7332406.55</v>
-      </c>
-      <c r="M13" s="4" t="n">
-        <v>5544659.109999999</v>
-      </c>
-      <c r="N13" s="4" t="n">
-        <v>42808929.72</v>
+        <v>27281631.46</v>
       </c>
     </row>
     <row r="14">
@@ -1138,43 +928,28 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>8909727.469999999</v>
+        <v>12939887.94</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>3130267.35</v>
+        <v>7151189.76</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>6467103.46</v>
+        <v>6774926.37</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>6789109.28</v>
+        <v>7098717.359999999</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>6133418.949999999</v>
+        <v>7387834</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>12939887.94</v>
+        <v>7124671.76</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>7151189.76</v>
+        <v>0</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>6774926.37</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <v>7098717.359999999</v>
-      </c>
-      <c r="K14" s="4" t="n">
-        <v>7387834</v>
-      </c>
-      <c r="L14" s="4" t="n">
-        <v>7124671.76</v>
-      </c>
-      <c r="M14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="4" t="n">
-        <v>79906853.7</v>
+        <v>48477227.19000001</v>
       </c>
     </row>
     <row r="15">
@@ -1184,43 +959,28 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>4053784.59</v>
+        <v>5520932.689999999</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>1473033.17</v>
+        <v>5372947.12</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>2379510.23</v>
+        <v>4297707.07</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>2885960.04</v>
+        <v>3652364.3</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>4205115.68</v>
+        <v>3730383.88</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>5520932.689999999</v>
+        <v>4737671.42</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>5372947.12</v>
+        <v>0</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>4297707.07</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>3652364.3</v>
-      </c>
-      <c r="K15" s="4" t="n">
-        <v>3730383.88</v>
-      </c>
-      <c r="L15" s="4" t="n">
-        <v>4737671.42</v>
-      </c>
-      <c r="M15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4" t="n">
-        <v>42309410.19000001</v>
+        <v>27312006.48</v>
       </c>
     </row>
     <row r="16">
@@ -1230,43 +990,28 @@
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>2882915.51</v>
+        <v>4866367.060000001</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>2055827.7</v>
+        <v>4996490.21</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>2462013.69</v>
+        <v>3980822.34</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>3563244.56</v>
+        <v>3875532.17</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>3325232.69</v>
+        <v>4605648.38</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>4866367.060000001</v>
+        <v>3752786.7</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>4996490.21</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>3980822.34</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>3875532.17</v>
-      </c>
-      <c r="K16" s="4" t="n">
-        <v>4605648.38</v>
-      </c>
-      <c r="L16" s="4" t="n">
-        <v>3752786.7</v>
-      </c>
-      <c r="M16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4" t="n">
-        <v>40366881.01000001</v>
+        <v>26077646.86</v>
       </c>
     </row>
     <row r="17">
@@ -1276,43 +1021,28 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>396000</v>
+        <v>425800</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>0</v>
+        <v>939000</v>
       </c>
       <c r="D17" s="4" t="n">
-        <v>0</v>
+        <v>915000</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>885000</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0</v>
+        <v>1218000</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>425800</v>
+        <v>900000</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>939000</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>915000</v>
-      </c>
-      <c r="J17" s="4" t="n">
-        <v>885000</v>
-      </c>
-      <c r="K17" s="4" t="n">
-        <v>1218000</v>
-      </c>
-      <c r="L17" s="4" t="n">
-        <v>900000</v>
-      </c>
-      <c r="M17" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="4" t="n">
-        <v>5678800</v>
+        <v>5282800</v>
       </c>
     </row>
     <row r="18">
@@ -1322,43 +1052,28 @@
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>4990425.01</v>
+        <v>6390602.01</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>5054568.02</v>
+        <v>5340500.92</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>5193202</v>
+        <v>5485500.92</v>
       </c>
       <c r="E18" s="4" t="n">
-        <v>5223202.02</v>
+        <v>5205500.92</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>3998902.01</v>
+        <v>5657536.49</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>6390602.01</v>
+        <v>5506017.83</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>5340500.92</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>5485500.92</v>
-      </c>
-      <c r="J18" s="4" t="n">
-        <v>5205500.92</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>5657536.49</v>
-      </c>
-      <c r="L18" s="4" t="n">
-        <v>5506017.83</v>
-      </c>
-      <c r="M18" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4" t="n">
-        <v>58045958.15</v>
+        <v>33585659.09</v>
       </c>
     </row>
     <row r="19">
@@ -1368,43 +1083,28 @@
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>966140</v>
+        <v>2408500</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>796200</v>
+        <v>1367200</v>
       </c>
       <c r="D19" s="4" t="n">
-        <v>849500</v>
+        <v>1633000</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>907500</v>
+        <v>930300</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>784000</v>
+        <v>980000</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>2408500</v>
+        <v>2053000</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>1367200</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>1633000</v>
-      </c>
-      <c r="J19" s="4" t="n">
-        <v>930300</v>
-      </c>
-      <c r="K19" s="4" t="n">
-        <v>980000</v>
-      </c>
-      <c r="L19" s="4" t="n">
-        <v>2053000</v>
-      </c>
-      <c r="M19" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4" t="n">
-        <v>13675340</v>
+        <v>9372000</v>
       </c>
     </row>
     <row r="20">
@@ -1414,43 +1114,28 @@
         </is>
       </c>
       <c r="B20" s="7" t="n">
-        <v>37364364.30999999</v>
+        <v>50818728.53</v>
       </c>
       <c r="C20" s="7" t="n">
-        <v>28723825.98</v>
+        <v>46604523.77</v>
       </c>
       <c r="D20" s="7" t="n">
-        <v>31133478.79</v>
+        <v>42052325.65000001</v>
       </c>
       <c r="E20" s="7" t="n">
-        <v>34045382.23</v>
+        <v>38603178.93</v>
       </c>
       <c r="F20" s="7" t="n">
-        <v>35715467.16999999</v>
+        <v>45534166.83</v>
       </c>
       <c r="G20" s="7" t="n">
-        <v>50818728.53</v>
+        <v>43274997.98</v>
       </c>
       <c r="H20" s="7" t="n">
-        <v>46604523.77</v>
+        <v>17545636.71</v>
       </c>
       <c r="I20" s="7" t="n">
-        <v>42052325.65000001</v>
-      </c>
-      <c r="J20" s="7" t="n">
-        <v>38603178.93</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>45534166.83</v>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>43274997.98</v>
-      </c>
-      <c r="M20" s="7" t="n">
-        <v>17545636.71</v>
-      </c>
-      <c r="N20" s="7" t="n">
-        <v>451416076.88</v>
+        <v>284433558.4</v>
       </c>
     </row>
     <row r="21">
@@ -1460,43 +1145,28 @@
         </is>
       </c>
       <c r="B21" s="9" t="n">
-        <v>56200993.51</v>
+        <v>80815048.7</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>46852714.76</v>
+        <v>180225348.86</v>
       </c>
       <c r="D21" s="9" t="n">
-        <v>73864563.44</v>
+        <v>113465246.22</v>
       </c>
       <c r="E21" s="9" t="n">
-        <v>106861122.44</v>
+        <v>100292573.77</v>
       </c>
       <c r="F21" s="9" t="n">
-        <v>110801039.11</v>
+        <v>158321826.58</v>
       </c>
       <c r="G21" s="9" t="n">
-        <v>80815048.7</v>
+        <v>142631286.03</v>
       </c>
       <c r="H21" s="9" t="n">
-        <v>180225348.86</v>
+        <v>114421223.93</v>
       </c>
       <c r="I21" s="9" t="n">
-        <v>113465246.22</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <v>100292573.77</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>158321826.58</v>
-      </c>
-      <c r="L21" s="9" t="n">
-        <v>142631286.03</v>
-      </c>
-      <c r="M21" s="9" t="n">
-        <v>114421223.93</v>
-      </c>
-      <c r="N21" s="9" t="n">
-        <v>1284752987.35</v>
+        <v>890172554.0899999</v>
       </c>
     </row>
     <row r="22">
@@ -1506,43 +1176,28 @@
         </is>
       </c>
       <c r="B22" s="11" t="n">
-        <v>18836629.2</v>
+        <v>29996320.17</v>
       </c>
       <c r="C22" s="11" t="n">
-        <v>18128888.78</v>
+        <v>133620825.09</v>
       </c>
       <c r="D22" s="11" t="n">
-        <v>42731084.65</v>
+        <v>71412920.56999999</v>
       </c>
       <c r="E22" s="11" t="n">
-        <v>72815740.20999999</v>
+        <v>61689394.84</v>
       </c>
       <c r="F22" s="11" t="n">
-        <v>75085571.94</v>
+        <v>112787659.75</v>
       </c>
       <c r="G22" s="11" t="n">
-        <v>29996320.17</v>
+        <v>99356288.05000001</v>
       </c>
       <c r="H22" s="11" t="n">
-        <v>133620825.09</v>
+        <v>96875587.22</v>
       </c>
       <c r="I22" s="11" t="n">
-        <v>71412920.56999999</v>
-      </c>
-      <c r="J22" s="11" t="n">
-        <v>61689394.84</v>
-      </c>
-      <c r="K22" s="11" t="n">
-        <v>112787659.75</v>
-      </c>
-      <c r="L22" s="11" t="n">
-        <v>99356288.05000001</v>
-      </c>
-      <c r="M22" s="11" t="n">
-        <v>96875587.22</v>
-      </c>
-      <c r="N22" s="11" t="n">
-        <v>833336910.47</v>
+        <v>605738995.6899999</v>
       </c>
     </row>
   </sheetData>
